--- a/com/resources/TestCase.xlsx
+++ b/com/resources/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="getTravelCost" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>https://passport.z-trip.cn/jsonp/login2.json?</t>
   </si>
   <si>
-    <t>{"username": "13248231369", "password": "cai123456", "service": "https://ms.z-trip.cn", "loginType": "0","chkpersist": "1", "autologin": "0", "_": "1552268195740"}</t>
+    <t>{"username": "13248231369", "password": "cai000000", "service": "https://ms.z-trip.cn", "loginType": "0","chkpersist": "1", "autologin": "0", "_": "1552268195740"}</t>
   </si>
   <si>
     <t>正常登陆</t>
@@ -139,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -160,21 +160,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,40 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +242,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -250,49 +257,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,6 +318,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,175 +378,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,8 +530,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,13 +560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,17 +590,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,8 +619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,143 +630,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1425,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="4"/>
